--- a/data/trans_dic/P16A03-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P16A03-Habitat-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -926,7 +926,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1066,7 +1066,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">

--- a/data/trans_dic/P16A03-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P16A03-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,89%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,71%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,87%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,68%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,65%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,66%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,32%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,51%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,23%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,16%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,58%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,83%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,81</t>
+          <t>0,0; 4,48</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,57</t>
+          <t>0,0; 3,62</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,68</t>
+          <t>0,0; 6,6</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,61</t>
+          <t>0,53; 8,33</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,49</t>
+          <t>3,86; 13,7</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,92</t>
+          <t>0,93; 9,23</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,65</t>
+          <t>0,81; 8,25</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,79</t>
+          <t>4,09; 10,0</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,82</t>
+          <t>2,27; 7,39</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,87</t>
+          <t>0,82; 4,51</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,84</t>
+          <t>0,89; 5,31</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>3,17; 7,51</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,13%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,84%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,51%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,77%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,62%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,74%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,46%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,93%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,87%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,28%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,99%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,37%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>1,18; 3,62</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>0,33; 2,01</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>0,14; 1,39</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>1,73; 4,35</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>3,93; 7,81</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>4,06; 7,93</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>3,73; 7,85</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>3,0; 5,24</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>2,9; 5,14</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>2,35; 4,56</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>2,12; 4,2</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>2,66; 4,27</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,44%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,15%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,19%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,58%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,51%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,55%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,1%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,47%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,98%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,86%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,15%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,04%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>1,53; 3,82</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>0,59; 1,99</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>0,58; 1,96</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>1,02; 2,47</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>4,03; 7,16</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>5,06; 8,34</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>2,14; 4,43</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>3,54; 5,61</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>3,1; 5,06</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>2,99; 4,91</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>1,53; 2,89</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>2,5; 3,79</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,72%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,66%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,54%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,28%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,37%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,06%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,9%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,93%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,55%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,89%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,74%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,18%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>0,78; 3,03</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>0,72; 3,29</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>0,77; 2,76</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>1,36; 3,58</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>3,93; 7,55</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>4,36; 8,06</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>2,77; 5,55</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>2,5; 5,24</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>2,56; 4,64</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>2,94; 5,17</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>1,97; 3,62</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>2,36; 4,08</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,63%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,65%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,55%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,13%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,68%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,85%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,77%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,17%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,71%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,86%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,25%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,87%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>1,85; 3,87</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>0,94; 2,71</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>0,94; 2,59</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>1,34; 3,33</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>3,56; 6,13</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>4,42; 7,47</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>3,51; 6,4</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>5,79; 8,69</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>2,96; 4,59</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>3,1; 4,91</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>2,47; 4,11</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>4,06; 5,9</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,24%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,33%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,28%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,11%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,32%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,01%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,15%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,15%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,8%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,71%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,74%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,72%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>1,74; 2,86</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>0,93; 1,83</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>0,94; 1,68</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>1,65; 2,52</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>4,52; 6,13</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>5,22; 6,9</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>3,48; 4,84</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>4,51; 5,86</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>3,37; 4,37</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>3,26; 4,22</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>2,39; 3,16</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,02</t>
+          <t>3,28; 4,12</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16A03-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P16A03-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,89%</t>
+          <t>1,92%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,71%</t>
+          <t>0,82%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,87%</t>
+          <t>0,74%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,68%</t>
+          <t>2,74%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>7,65%</t>
+          <t>5,95%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>3,66%</t>
+          <t>5,4%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>3,32%</t>
+          <t>5,1%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>6,51%</t>
+          <t>4,44%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>4,23%</t>
+          <t>3,93%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>2,16%</t>
+          <t>3,1%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>2,58%</t>
+          <t>2,92%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>4,83%</t>
+          <t>3,62%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,48</t>
+          <t>1,0; 3,25</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,62</t>
+          <t>0,29; 1,68</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,6</t>
+          <t>0,28; 1,64</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,53; 8,33</t>
+          <t>1,75; 4,24</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,86; 13,7</t>
+          <t>4,32; 7,9</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,93; 9,23</t>
+          <t>3,81; 7,17</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,81; 8,25</t>
+          <t>3,46; 7,12</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>4,09; 10,0</t>
+          <t>3,46; 5,65</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,27; 7,39</t>
+          <t>2,97; 5,0</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,82; 4,51</t>
+          <t>2,33; 4,21</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,89; 5,31</t>
+          <t>2,16; 4,05</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>3,17; 7,51</t>
+          <t>2,91; 4,53</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2,13%</t>
+          <t>2,44%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,84%</t>
+          <t>1,15%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,51%</t>
+          <t>1,19%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>2,77%</t>
+          <t>1,33%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>5,62%</t>
+          <t>5,51%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>5,74%</t>
+          <t>6,55%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>5,46%</t>
+          <t>3,1%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>3,93%</t>
+          <t>4,6%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>3,87%</t>
+          <t>3,98%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>3,28%</t>
+          <t>3,86%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>2,99%</t>
+          <t>2,15%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>3,37%</t>
+          <t>2,78%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,18; 3,62</t>
+          <t>1,53; 3,82</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,33; 2,01</t>
+          <t>0,59; 1,99</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,14; 1,39</t>
+          <t>0,58; 1,96</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,73; 4,35</t>
+          <t>0,64; 2,16</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,93; 7,81</t>
+          <t>4,03; 7,16</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>4,06; 7,93</t>
+          <t>5,06; 8,34</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,73; 7,85</t>
+          <t>2,14; 4,43</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>3,0; 5,24</t>
+          <t>3,64; 5,75</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,9; 5,14</t>
+          <t>3,1; 5,06</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>2,35; 4,56</t>
+          <t>2,99; 4,91</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>2,12; 4,2</t>
+          <t>1,53; 2,89</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,66; 4,27</t>
+          <t>1,91; 3,56</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,44%</t>
+          <t>1,72%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,15%</t>
+          <t>1,66%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,19%</t>
+          <t>1,54%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,58%</t>
+          <t>2,28%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>5,51%</t>
+          <t>5,37%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>6,55%</t>
+          <t>6,06%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>3,1%</t>
+          <t>3,9%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>4,47%</t>
+          <t>3,44%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>3,98%</t>
+          <t>3,55%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>3,86%</t>
+          <t>3,89%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>2,15%</t>
+          <t>2,74%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>3,04%</t>
+          <t>2,94%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,53; 3,82</t>
+          <t>0,78; 3,03</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,59; 1,99</t>
+          <t>0,72; 3,29</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,58; 1,96</t>
+          <t>0,77; 2,76</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,02; 2,47</t>
+          <t>1,39; 3,61</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,03; 7,16</t>
+          <t>3,93; 7,55</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,06; 8,34</t>
+          <t>4,36; 8,06</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,14; 4,43</t>
+          <t>2,77; 5,55</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,54; 5,61</t>
+          <t>1,78; 4,94</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,1; 5,06</t>
+          <t>2,56; 4,64</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>2,99; 4,91</t>
+          <t>2,94; 5,17</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>1,53; 2,89</t>
+          <t>1,97; 3,62</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>2,5; 3,79</t>
+          <t>1,97; 3,84</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,72%</t>
+          <t>2,63%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,66%</t>
+          <t>1,65%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,54%</t>
+          <t>1,55%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2,28%</t>
+          <t>2,11%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>5,37%</t>
+          <t>4,68%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>6,06%</t>
+          <t>5,85%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>3,9%</t>
+          <t>4,77%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>3,93%</t>
+          <t>6,88%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>3,55%</t>
+          <t>3,71%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>3,89%</t>
+          <t>3,86%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>2,74%</t>
+          <t>3,25%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>3,18%</t>
+          <t>4,69%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,78; 3,03</t>
+          <t>1,85; 3,87</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,72; 3,29</t>
+          <t>0,94; 2,71</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,77; 2,76</t>
+          <t>0,94; 2,59</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,36; 3,58</t>
+          <t>1,34; 3,32</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,93; 7,55</t>
+          <t>3,56; 6,13</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>4,36; 8,06</t>
+          <t>4,42; 7,47</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,77; 5,55</t>
+          <t>3,51; 6,4</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,5; 5,24</t>
+          <t>5,37; 8,4</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>2,56; 4,64</t>
+          <t>2,96; 4,59</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>2,94; 5,17</t>
+          <t>3,1; 4,91</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>1,97; 3,62</t>
+          <t>2,47; 4,11</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>2,36; 4,08</t>
+          <t>3,81; 5,72</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2,63%</t>
+          <t>2,24%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1,65%</t>
+          <t>1,33%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,55%</t>
+          <t>1,28%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>2,13%</t>
+          <t>1,99%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>4,68%</t>
+          <t>5,32%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>5,85%</t>
+          <t>6,01%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>4,77%</t>
+          <t>4,15%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>7,17%</t>
+          <t>4,95%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
+          <t>3,8%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
           <t>3,71%</t>
         </is>
       </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>3,86%</t>
-        </is>
-      </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>3,25%</t>
+          <t>2,74%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>4,87%</t>
+          <t>3,51%</t>
         </is>
       </c>
     </row>
@@ -1284,214 +1284,74 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,85; 3,87</t>
+          <t>1,74; 2,86</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,94; 2,71</t>
+          <t>0,93; 1,83</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,94; 2,59</t>
+          <t>0,94; 1,68</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,34; 3,33</t>
+          <t>1,46; 2,45</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3,56; 6,13</t>
+          <t>4,52; 6,13</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>4,42; 7,47</t>
+          <t>5,22; 6,9</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>3,51; 6,4</t>
+          <t>3,48; 4,84</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>5,79; 8,69</t>
+          <t>4,11; 5,7</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>2,96; 4,59</t>
+          <t>3,37; 4,37</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>3,1; 4,91</t>
+          <t>3,26; 4,22</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>2,47; 4,11</t>
+          <t>2,39; 3,16</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>4,06; 5,9</t>
+          <t>2,96; 3,95</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>2,24%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>1,33%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>1,28%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>2,11%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>5,32%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>6,01%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>4,15%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>5,15%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>3,8%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>3,71%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>2,74%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>3,72%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>1,74; 2,86</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>0,93; 1,83</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>0,94; 1,68</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>1,65; 2,52</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>4,52; 6,13</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>5,22; 6,9</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>3,48; 4,84</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>4,51; 5,86</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>3,37; 4,37</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>3,26; 4,22</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>2,39; 3,16</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>3,28; 4,12</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1501,7 +1361,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/P16A03-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P16A03-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,0; 3,25</t>
+          <t>1,11; 3,15</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,29; 1,68</t>
+          <t>0,38; 1,7</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,28; 1,64</t>
+          <t>0,25; 1,59</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,75; 4,24</t>
+          <t>1,86; 4,35</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4,32; 7,9</t>
+          <t>4,36; 8,04</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,81; 7,17</t>
+          <t>3,72; 7,41</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>3,46; 7,12</t>
+          <t>3,65; 6,96</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,46; 5,65</t>
+          <t>3,39; 5,45</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,97; 5,0</t>
+          <t>2,96; 5,06</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>2,33; 4,21</t>
+          <t>2,26; 4,14</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>2,16; 4,05</t>
+          <t>2,09; 3,85</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>2,91; 4,53</t>
+          <t>2,91; 4,52</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,53; 3,82</t>
+          <t>1,61; 4,03</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,59; 1,99</t>
+          <t>0,61; 2,03</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,58; 1,96</t>
+          <t>0,66; 1,97</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,64; 2,16</t>
+          <t>0,58; 2,14</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,03; 7,16</t>
+          <t>3,99; 7,04</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>5,06; 8,34</t>
+          <t>5,12; 8,27</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,14; 4,43</t>
+          <t>2,13; 4,29</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>3,64; 5,75</t>
+          <t>3,55; 5,79</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3,1; 5,06</t>
+          <t>3,14; 5,04</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>2,99; 4,91</t>
+          <t>2,99; 4,81</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>1,53; 2,89</t>
+          <t>1,54; 2,88</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,91; 3,56</t>
+          <t>1,8; 3,47</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,78; 3,03</t>
+          <t>0,71; 3,07</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,72; 3,29</t>
+          <t>0,68; 3,23</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,77; 2,76</t>
+          <t>0,78; 2,69</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,39; 3,61</t>
+          <t>1,38; 3,61</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,93; 7,55</t>
+          <t>3,88; 7,24</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,36; 8,06</t>
+          <t>4,4; 8,11</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,77; 5,55</t>
+          <t>2,6; 5,42</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,78; 4,94</t>
+          <t>1,73; 4,95</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,56; 4,64</t>
+          <t>2,63; 4,77</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>2,94; 5,17</t>
+          <t>2,94; 5,1</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>1,97; 3,62</t>
+          <t>1,95; 3,58</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,97; 3,84</t>
+          <t>1,94; 3,89</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,85; 3,87</t>
+          <t>1,8; 3,76</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,94; 2,71</t>
+          <t>0,93; 2,61</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,94; 2,59</t>
+          <t>0,92; 2,55</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,34; 3,32</t>
+          <t>1,31; 3,19</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,56; 6,13</t>
+          <t>3,44; 6,06</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>4,42; 7,47</t>
+          <t>4,55; 7,57</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>3,51; 6,4</t>
+          <t>3,47; 6,44</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>5,37; 8,4</t>
+          <t>5,36; 8,56</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>2,96; 4,59</t>
+          <t>2,93; 4,59</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>3,1; 4,91</t>
+          <t>2,94; 4,87</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>2,47; 4,11</t>
+          <t>2,56; 4,17</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>3,81; 5,72</t>
+          <t>3,88; 5,7</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,74; 2,86</t>
+          <t>1,79; 2,9</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,93; 1,83</t>
+          <t>1,0; 1,8</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,94; 1,68</t>
+          <t>0,93; 1,72</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,46; 2,45</t>
+          <t>1,47; 2,49</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>4,52; 6,13</t>
+          <t>4,56; 6,06</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>5,22; 6,9</t>
+          <t>5,23; 6,87</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>3,48; 4,84</t>
+          <t>3,49; 4,88</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>4,11; 5,7</t>
+          <t>4,07; 5,65</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>3,37; 4,37</t>
+          <t>3,31; 4,24</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>3,26; 4,22</t>
+          <t>3,26; 4,2</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>2,39; 3,16</t>
+          <t>2,35; 3,16</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>2,96; 3,95</t>
+          <t>2,98; 4,0</t>
         </is>
       </c>
     </row>
@@ -1364,4 +1365,1212 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha consumido reconstituyentes en las dos últimas semanas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>13314</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>5757</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>5009</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>17416</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>40991</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>37411</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>34334</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>29974</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>54305</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>43167</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>39343</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>47390</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>7715; 21831</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>2687; 11928</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>1665; 10748</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>11782; 27628</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>30020; 55370</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>25727; 51277</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>24536; 46813</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>22901; 36812</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>40882; 69923</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>31525; 57743</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>28155; 51940</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>38113; 59248</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>23491</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>11691</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>12137</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>15853</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>53334</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>67300</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>32344</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>44037</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>76825</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>78991</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>44482</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>59890</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>15455; 38777</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>6193; 20709</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>6739; 20158</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>6937; 25521</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>38603; 68176</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>52634; 85004</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>22185; 44743</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>34052; 55500</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>60590; 97278</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>61251; 98355</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>31803; 59381</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>38626; 74683</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>11668</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>12578</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>11694</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>16045</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>36750</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>47055</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>30583</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>32086</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>48418</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>59633</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>42277</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>48131</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>4814; 20860</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>5168; 24429</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>5935; 20411</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>9691; 25406</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>26501; 49511</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>34144; 62944</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>20424; 42530</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>16155; 46163</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>35811; 64925</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>45013; 78173</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>30072; 55251</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>31819; 63733</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>24804</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>15530</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>14503</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>19562</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>48610</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>61263</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>49824</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>75072</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>73415</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>76793</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>64327</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>94633</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>16995; 35383</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>8823; 24630</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>8631; 23913</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>12116; 29607</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>35777; 62900</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>47688; 79343</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>36197; 67175</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>58548; 93422</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>58061; 90903</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>58620; 97025</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>50813; 82690</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>78293; 115131</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>178</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>195</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>328</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>247</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>235</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>417</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>73277</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>45556</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>43343</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>68876</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>179686</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>213030</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>147085</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>181169</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>252963</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>258585</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>190428</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>250045</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>58615; 94985</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>34073; 61591</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>31640; 58547</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>50926; 86019</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>154147; 204663</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>185300; 243332</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>123591; 172901</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>148904; 206724</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>220429; 281987</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>227342; 292577</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>162858; 218963</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>212144; 284391</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>